--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 3.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3437,12 +3437,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3899,12 +3899,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4269,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
